--- a/datafiles/project_planning.xlsx
+++ b/datafiles/project_planning.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="41">
   <si>
     <t>Testing</t>
   </si>
@@ -69,9 +69,6 @@
   </si>
   <si>
     <t>Documentation</t>
-  </si>
-  <si>
-    <t>21.04.12</t>
   </si>
   <si>
     <t>End of Analysis</t>
@@ -493,7 +490,7 @@
   <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -537,19 +534,19 @@
         <v>9</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -661,10 +658,10 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="5" t="s">
         <v>15</v>
+      </c>
+      <c r="B6" s="5">
+        <v>41020</v>
       </c>
       <c r="G6" s="4"/>
       <c r="N6">
@@ -673,13 +670,13 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E8" s="3">
         <v>41021</v>
@@ -692,7 +689,7 @@
         <v>23</v>
       </c>
       <c r="H8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I8">
         <v>45</v>
@@ -709,7 +706,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E9" s="3">
         <v>41044</v>
@@ -722,7 +719,7 @@
         <v>23</v>
       </c>
       <c r="H9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -739,7 +736,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E10" s="3">
         <v>41067</v>
@@ -752,7 +749,7 @@
         <v>30</v>
       </c>
       <c r="H10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -769,7 +766,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E11" s="3">
         <v>41097</v>
@@ -782,7 +779,7 @@
         <v>14</v>
       </c>
       <c r="H11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -799,7 +796,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B12" s="5">
         <f>F11</f>
@@ -809,7 +806,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G13" s="4"/>
       <c r="I13">
@@ -827,7 +824,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E14" s="5">
         <v>41021</v>
@@ -840,7 +837,7 @@
         <v>76</v>
       </c>
       <c r="H14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -857,7 +854,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E15" s="5">
         <v>41097</v>
@@ -870,7 +867,7 @@
         <v>24</v>
       </c>
       <c r="H15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -893,7 +890,7 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E16" s="5">
         <v>41121</v>
@@ -906,12 +903,12 @@
         <v>5</v>
       </c>
       <c r="H16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B17" s="5">
         <f>F16</f>
@@ -947,7 +944,7 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E19" s="5">
         <v>41097</v>
@@ -960,7 +957,7 @@
         <v>24</v>
       </c>
       <c r="H19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -977,7 +974,7 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E20" s="5">
         <v>41121</v>
@@ -1007,7 +1004,7 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E21" s="5">
         <v>41135</v>
@@ -1020,7 +1017,7 @@
         <v>17</v>
       </c>
       <c r="H21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1028,7 +1025,7 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B22" s="5">
         <f>F21</f>
@@ -1037,7 +1034,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B23" s="3">
         <v>41159</v>
@@ -1057,7 +1054,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E24" s="3">
         <v>41167</v>

--- a/datafiles/project_planning.xlsx
+++ b/datafiles/project_planning.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24975" windowHeight="10155"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="24975" windowHeight="10155"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,41 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Guest1</author>
+  </authors>
+  <commentList>
+    <comment ref="L1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">HG:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">The boxes enclosing part of the process
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="41">
   <si>
@@ -156,7 +191,7 @@
   <numFmts count="1">
     <numFmt numFmtId="169" formatCode="[$-14009]d\.m\.yy;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,6 +213,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -486,11 +534,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1073,5 +1121,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>